--- a/project/杜鑫宇/测试用例Excel表格/探索性测试.xlsx
+++ b/project/杜鑫宇/测试用例Excel表格/探索性测试.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AAAExperimentTesting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AAAExperimentTesting\github-ku\easyProject\project\杜鑫宇\测试用例Excel表格\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A106E5-B19B-4197-A4D5-ACE8CC19A8A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BF26B9-6D23-437C-B7DC-B44A62BD26E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1764" yWindow="1080" windowWidth="19644" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="285">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -298,11 +298,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>单击提示框中的“确定”按钮后，页面下方弹窗提示添加成功的相关提示信息；
-在头衔界面显示了新增的头衔信息；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>单击提示框中的“确定”按钮后，页面下方显示提示内容为“添加成功 页面即将自动跳转~”的弹窗，2秒后页面自动跳转回头衔列表界面；
 在前台个人主页的“头衔”界面成功显示了新增的头衔信息；</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -652,13 +647,6 @@
 admin</t>
   </si>
   <si>
-    <t>1.单击用户扩展资料列表下面的“搜索”按钮；
-2.在界面刷新显示的搜索输入框中输入测试数据：admin
-3.单击页面右上方的“添加到常用操作”；
-3.单击搜索框下方的“确定”按钮；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>单击“添加到常用操作”后，页面下方弹窗提示“添加成功！"的提示信息；
 单击”确定"后，界面刷新，搜索admin用户的资料信息结果以列表的形式显示在搜索下方的界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1122,6 +1110,44 @@
   </si>
   <si>
     <t>页面下方弹窗提示内容为“添加分组成功 页面即将自动跳转~”的提示信息，2秒后，页面自动跳转回到扩展信息分组列表界面；</t>
+  </si>
+  <si>
+    <t>单击提示框中的“确定”按钮后，页面下方弹窗提示添加成功的相关提示信息；
+在头衔界面显示了新增的头衔信息；
+在前台个人主页的“头衔”界面成功显示了新增的头衔信息；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.单击用户扩展资料列表下面的“搜索”按钮；
+2.在界面刷新显示的搜索输入框中输入测试数据：admin
+3.单击页面右上方的“添加到常用操作”；
+4.单击搜索框下方的“确定”按钮；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫游测试—地标测试法</t>
+  </si>
+  <si>
+    <t>漫游测试—地标测试法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫游测试—快递测试法</t>
+  </si>
+  <si>
+    <t>漫游测试—遍历测试法</t>
+  </si>
+  <si>
+    <t>漫游测试—卖点测试法</t>
+  </si>
+  <si>
+    <t>漫游测试-遍历测试法</t>
+  </si>
+  <si>
+    <t>漫游测试-快递测试法</t>
+  </si>
+  <si>
+    <t>漫游测试—深巷测试法</t>
   </si>
 </sst>
 </file>
@@ -1482,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B48" zoomScale="70" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1754,10 +1780,10 @@
         <v>64</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="211.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1765,28 +1791,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="78" x14ac:dyDescent="0.25">
@@ -1794,13 +1820,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>11</v>
@@ -1809,13 +1835,13 @@
         <v>35</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -1823,13 +1849,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>11</v>
@@ -1838,13 +1864,13 @@
         <v>35</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -1852,13 +1878,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>11</v>
@@ -1867,13 +1893,13 @@
         <v>35</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="156" x14ac:dyDescent="0.25">
@@ -1881,28 +1907,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1910,28 +1936,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1939,28 +1965,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1968,28 +1994,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="I17" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="138.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1997,28 +2023,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.25">
@@ -2026,28 +2052,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H19" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2055,13 +2081,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>11</v>
@@ -2070,13 +2096,13 @@
         <v>35</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="116.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2084,13 +2110,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>11</v>
@@ -2099,13 +2125,13 @@
         <v>35</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2113,28 +2139,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2142,28 +2168,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="117" customHeight="1" x14ac:dyDescent="0.25">
@@ -2171,28 +2197,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.25">
@@ -2203,10 +2229,10 @@
         <v>53</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>55</v>
@@ -2232,10 +2258,10 @@
         <v>45</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>11</v>
@@ -2244,13 +2270,13 @@
         <v>35</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="211.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -2261,25 +2287,25 @@
         <v>45</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>60</v>
+        <v>284</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>47</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="I27" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
@@ -2290,10 +2316,10 @@
         <v>18</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>11</v>
@@ -2302,13 +2328,13 @@
         <v>35</v>
       </c>
       <c r="G28" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2319,7 +2345,7 @@
         <v>45</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>60</v>
@@ -2328,16 +2354,16 @@
         <v>47</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="I29" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -2348,10 +2374,10 @@
         <v>18</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>40</v>
@@ -2360,13 +2386,13 @@
         <v>35</v>
       </c>
       <c r="G30" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.25">
@@ -2377,25 +2403,25 @@
         <v>18</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="I31" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -2406,10 +2432,10 @@
         <v>61</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>11</v>
@@ -2418,13 +2444,13 @@
         <v>35</v>
       </c>
       <c r="G32" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2435,10 +2461,10 @@
         <v>18</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>40</v>
@@ -2447,13 +2473,13 @@
         <v>41</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -2464,25 +2490,25 @@
         <v>61</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>60</v>
+        <v>284</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G34" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="109.2" x14ac:dyDescent="0.25">
@@ -2493,25 +2519,25 @@
         <v>61</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="H35" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="I35" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="116.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2522,25 +2548,25 @@
         <v>61</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G36" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I36" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2548,28 +2574,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>60</v>
+        <v>279</v>
       </c>
       <c r="E37" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="H37" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="I37" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2577,28 +2603,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>60</v>
+        <v>277</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G38" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I38" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -2606,28 +2632,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G39" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I39" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2635,28 +2661,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G40" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2664,28 +2690,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>60</v>
+        <v>279</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F41" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="I41" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="98.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2693,13 +2719,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>11</v>
@@ -2708,13 +2734,13 @@
         <v>35</v>
       </c>
       <c r="G42" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2722,28 +2748,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="4" t="s">
+      <c r="F43" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="H43" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="I43" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2751,28 +2777,28 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>60</v>
+        <v>282</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G44" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I44" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2780,28 +2806,28 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E45" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="H45" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="I45" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="95.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2809,13 +2835,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>11</v>
@@ -2824,13 +2850,13 @@
         <v>35</v>
       </c>
       <c r="G46" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="I46" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -2838,28 +2864,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>60</v>
+        <v>281</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2867,28 +2893,28 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F48" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="I48" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="115.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2896,28 +2922,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F49" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I49" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="148.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2925,28 +2951,28 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F50" s="3" t="s">
+      <c r="H50" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="I50" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2954,28 +2980,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="H51" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="I51" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>276</v>
       </c>
     </row>
   </sheetData>
